--- a/Income/ITW_inc.xlsx
+++ b/Income/ITW_inc.xlsx
@@ -1978,10 +1978,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>0.4057</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.4012</v>
@@ -2107,10 +2105,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.2348</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.2292</v>
@@ -2236,10 +2232,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.2199</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.215</v>
@@ -2365,10 +2359,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.1718</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.1677</v>
@@ -2494,10 +2486,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.2053</v>
@@ -4049,10 +4039,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0.2632</v>
@@ -4178,10 +4166,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.2232</v>
